--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19164" windowHeight="6984" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19164" windowHeight="6984" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Minim 3 denumiri firma</t>
   </si>
   <si>
-    <t>Daca nu ati mai avut pana acum o firma, va puteti infiinta un SRL-D, iar taxele de la ONRC sunt GRATUITE! Ce este un SRL-D? Societatea cu Răspundere Limitată – Debutant este reglementată de către Ordonanţa de Urgenţă 6/2011 şi a fost realizată în vederea stimulării înfiinţării şi dezvoltării microîntreprinderilor de către întreprinzătorii debutanți.</t>
-  </si>
-  <si>
     <t>Este obligat să notifice în scris cu privire la înființare oficiul teritorial pentru întreprinderi mici și mijlocii și cooperație (O.T.I.M.M.C.) al A.I.P.P.I.M.M. în a cărui rază de competență își are sediul social, în termen de cel mult 10 zile lucrătoare de la înregistrare, în vederea luării în evidență;</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>Obligat să depună la A.I.P.P.I.M.M. situațiile financiare semestriale și anuale, cu dovadă înregistrării acestora la autoritătile competente, precum și un raport semestrial de progres.</t>
   </si>
   <si>
-    <t>menu</t>
-  </si>
-  <si>
     <t>descriere…</t>
   </si>
   <si>
@@ -278,6 +272,9 @@
   </si>
   <si>
     <t>Termen: 2 zile lucratoare din momentul in care dosarul este depus la Registrul Comertului</t>
+  </si>
+  <si>
+    <t>Daca nu ati mai avut pana acum o firma, va puteti infiinta un SRL-D, iar taxele de la ONRC sunt GRATUITE! Ce este un SRL-D? Societatea cu Răspundere Limitată – Debutant este reglementată de către Ordonanţa de Urgenţă 6/2011 si a fost realizată în vederea stimulării înfiinţării si dezvoltării microîntreprinderilor de către întreprinzătorii debutanti.</t>
   </si>
 </sst>
 </file>
@@ -807,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +840,7 @@
         <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>39</v>
@@ -863,16 +860,16 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -889,19 +886,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -918,19 +915,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -947,19 +944,19 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -976,19 +973,19 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1002,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1025,13 +1022,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1048,13 +1045,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1071,13 +1068,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1094,13 +1091,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1117,13 +1114,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1140,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1163,13 +1160,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1186,13 +1183,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1209,13 +1206,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1234,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1243,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -1511,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -1528,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -1545,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -1562,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>

--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19164" windowHeight="6984" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19164" windowHeight="6984" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Acasa</t>
   </si>
   <si>
-    <t>Despre mine</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -226,24 +223,6 @@
     <t>termen…</t>
   </si>
   <si>
-    <t>submenu 1</t>
-  </si>
-  <si>
-    <t>submenu 2</t>
-  </si>
-  <si>
-    <t>submenu 3</t>
-  </si>
-  <si>
-    <t>submenu 4</t>
-  </si>
-  <si>
-    <t>submenu 5</t>
-  </si>
-  <si>
-    <t>submenu 6</t>
-  </si>
-  <si>
     <t>foto</t>
   </si>
   <si>
@@ -275,6 +254,87 @@
   </si>
   <si>
     <t>Daca nu ati mai avut pana acum o firma, va puteti infiinta un SRL-D, iar taxele de la ONRC sunt GRATUITE! Ce este un SRL-D? Societatea cu Răspundere Limitată – Debutant este reglementată de către Ordonanţa de Urgenţă 6/2011 si a fost realizată în vederea stimulării înfiinţării si dezvoltării microîntreprinderilor de către întreprinzătorii debutanti.</t>
+  </si>
+  <si>
+    <t>Actualitati</t>
+  </si>
+  <si>
+    <t>Inchidere punct de lucru PFA, II, IF</t>
+  </si>
+  <si>
+    <t>Deschidere punct de lucru PFA, II, IF</t>
+  </si>
+  <si>
+    <t>Suspendare/reluare activitate PFA, II, IF</t>
+  </si>
+  <si>
+    <t>Schimbare sediu profesional PFA, II, IF</t>
+  </si>
+  <si>
+    <t>Modificare obiect activitate PFA</t>
+  </si>
+  <si>
+    <t>Extindere obiect activitate si autorizare PFA</t>
+  </si>
+  <si>
+    <t>Schimbare sediu social SRL(in acelasi judet)</t>
+  </si>
+  <si>
+    <t>Schimbare sediu social SRL(in alt judet)</t>
+  </si>
+  <si>
+    <t>Prelungire valabilitate sediu social/profesional</t>
+  </si>
+  <si>
+    <t>Schimbare denumire firma</t>
+  </si>
+  <si>
+    <t>Cesiune parti sociale</t>
+  </si>
+  <si>
+    <t>Majorare capital social</t>
+  </si>
+  <si>
+    <t>Revocare numire administrator</t>
+  </si>
+  <si>
+    <t>Suspendare/reluare activitate SRL</t>
+  </si>
+  <si>
+    <t>Modificare obiect activitate SRL</t>
+  </si>
+  <si>
+    <t>Autorizare activitati</t>
+  </si>
+  <si>
+    <t>Extindere SRL - Autorizare SRL</t>
+  </si>
+  <si>
+    <t>Inchidere si deschidere punct lucru</t>
+  </si>
+  <si>
+    <t>Dizolvare voluntara/lichidare/radiere SRL</t>
+  </si>
+  <si>
+    <t>Radiere PFA, II, IF</t>
+  </si>
+  <si>
+    <t>m4s1.jpg</t>
+  </si>
+  <si>
+    <t>m4s2.jpg</t>
+  </si>
+  <si>
+    <t>m4s3.jpg</t>
+  </si>
+  <si>
+    <t>m4s5.jpg</t>
+  </si>
+  <si>
+    <t>m4s6.jpg</t>
+  </si>
+  <si>
+    <t>m4s4.jpg</t>
   </si>
 </sst>
 </file>
@@ -647,7 +707,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -688,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -802,17 +862,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -834,16 +894,16 @@
         <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -860,16 +920,16 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -886,19 +946,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -915,19 +975,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -944,19 +1004,19 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -973,19 +1033,19 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -999,17 +1059,23 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
@@ -1022,17 +1088,23 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
@@ -1045,17 +1117,23 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
@@ -1068,17 +1146,23 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
@@ -1091,17 +1175,23 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
@@ -1114,17 +1204,23 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
@@ -1137,16 +1233,20 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>1</v>
@@ -1160,16 +1260,20 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <v>1</v>
@@ -1183,16 +1287,20 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <v>1</v>
@@ -1206,18 +1314,292 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1231,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1255,7 +1637,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1508,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -1525,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -1542,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -1559,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -1598,7 +1980,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1663,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -1680,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -1697,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
